--- a/2025-02-06/Wrestling_2025-02-06.xlsx
+++ b/2025-02-06/Wrestling_2025-02-06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405236266603?_skw=PSA+10&amp;epid=16056063755&amp;hash=item5e59f6b66b:g:yNsAAOSwU6hhqsU5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnSWfjPWxAVNDsAKqJBjd2Sr0RgZJ3fAYp9ZM6N%2FhVIDyR4wRLTyrgXEu8O4B45qoVAXhUaFFCZJDoj2S%2Bh4GRBC9dLk42LIB6hzeLpkiJprzTkuuq9zIYCWxmpDuuRCoh8O8j3FZ5cdL4C%2B5d9ZGPhRnENepTbwhLUA8lS6Ghk5kXpPxCNRZmIOPZy%2F5x6cy8nTs6uWTPZmiFchGMAs1K1WUnR83eA5giQVEcWwGCpqMiRYMVyvgiGMwcHDSsrLTSajBQzWaE5lXyJfTkE2Yet%7Ctkp%3ABk9SR46Lz4ucZQ</t>
+          <t>https://www.ebay.com/itm/405236266603?_skw=PSA+10&amp;epid=16056063755&amp;hash=item5e59f6b66b:g:yNsAAOSwU6hhqsU5&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnSWfjPWxAVNDsAKqJBjd2Sr0RgZJ3fAYp9ZM6N%2FhVIDyR4wRLTyrgXEu8O4B45qoVAXhUaFFCZJDoj2S%2Bh4GRBC9dLk42LIB6hzeLpkiJprzTkuuq9zIYCWxmpDuuRCog6ReIGfD3guMYfzn8EusN5Ghv2cjswcmg0yWR55L22D3klAOL%2BroZDpOKqWUJqlAnEJ%2BuWNTbyQOFmIgAHlblRFqoP66FrRDqOt4p1K9z7zipMtuWZeLg7XiJ9J21SKuhC6GN40dliWkmPg9zDVXTC%7Ctkp%3ABk9SR9aB07GcZQ</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176740764417?_skw=PSA+10&amp;epid=11072860650&amp;hash=item2926920b01:g:Qz8AAOSwGpNnYf5c&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk%2Bxt3JA8Fln9m4YZBDjzAz68tABzQi4nXWAuyKsfaznDQRPHnU5ozwN8Yj7OT5a9nMmKJW8gwbcICiVB7qz%2FqgEqAVTTh3Fz7MisD5G4TLA1mrIp2sNRi0N2ohd0y1r0G1O3TSbVcD7fwMQ2O6rC%2Fq9NspsfxLWFNXO1Vh2MceE0psr83CvKfOYBTpDRrdBK0P0fWAWOxw5kZOJymcrCUIjM5E28pFF4SD6dnk9ThCLFBQOR%2BEBiOlpKdK76M36uBtWrNy72s5DfCajdrAAtw6%7Ctkp%3ABk9SR46Lz4ucZQ</t>
+          <t>https://www.ebay.com/itm/176740764417?_skw=PSA+10&amp;epid=11072860650&amp;hash=item2926920b01:g:Qz8AAOSwGpNnYf5c&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkL0LsDuOeEhsIS2%2FgCTszIrGiCuhbbzGBQM00El%2FcOBBgELFQTbUO3CcL87lOLcN7ePZYP9ptTfgm3bQBDmbz1%2FLm9TJrU%2Fyb%2BLVhpgG7PvLajk5rtaJLYJzrkPLh4%2BRDvmqZhhnKTpbGf2HLSL6b53tCoW2EYNqKKQOE4ujPUuxtP2MbBdWhBj6whJQfDJ0JYZuzBPnSbf1ezDNh15Q0hePQybzHZBlxY%2BOxVtOfr4A%3D%3D%7Ctkp%3ABk9SR9aB07GcZQ</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135526547512?_skw=PSA+10&amp;epid=22072719201&amp;hash=item1f8e030038:g:NnsAAeSwrrJnnFT4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlD8wf9lKNJ6dCgRMKEuoNNhehUOl73gmZBKBL1G8kNDoMCJYhApAV0Wm%2BAY18RbtArIVrcF5juwlD54C6lBvbLIWE2UIxfRuh3AWRfgDmDFER65tKIFQqQ1XaDrIsrjaqq4BcaszGtt3tiUQ%2BihGZXEb1GuefVw4CSJJZWozXdbZEvKjOuXLW9OwgtDnjTnQM9aib5NTiXBh75ntwk8QXhYJXhZEVSorxey%2BO5LhF0oNLzibZfUDtNY1rVxGtiMC%2B7AANXt4F8OMUfEklabuS4%7Ctkp%3ABk9SR46Lz4ucZQ</t>
+          <t>https://www.ebay.com/itm/135526547512?_skw=PSA+10&amp;epid=22072719201&amp;hash=item1f8e030038:g:NnsAAeSwrrJnnFT4&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlD8wf9lKNJ6dCgRMKEuoNNhehUOl73gmZBKBL1G8kNDoMCJYhApAV0Wm%2BAY18RbtArIVrcF5juwlD54C6lBvbLIWE2UIxfRuh3AWRfgDmDFER65tKIFQqQ1XaDrIsrjarsne%2Fnw7XKW9wjgMxO9u3se6nazG%2FhV3920%2Bx1U%2Fz7jMvTY2nRY5QarJzgc8i8s9ocZYDHYPe3Y%2BIhrUYm8xWf04wZ0zHI%2FdgilNNcCBu9O3MMkACyWzASANLcSZvMi8R3LV5lQ%2FGRVQqrSLMpwzAd%7Ctkp%3ABk9SR9aB07GcZQ</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/396156610950?_skw=PSA+10&amp;epid=19056582784&amp;hash=item5c3cc62986:g:huMAAOSwjflnmFFK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm3ujHWAe4qTRaA4OU8LgpRqHrF6jUvQ8q4pA2EadljIPj6oATBZJJvrEToh3JR%2BIvoG66pUIUqyjkmzkvmbZpTYW1554uB%2F%2B7qPcTt1MLck0tUDOJIszszFK%2FgCTE0KS6R%2BPDC8Iih2LO0eo%2BI5vNP3tbxoR%2BGZ9UJuAyXXC%2BnuO7X%2BuX0x10zcy1uOW7r0SZk%2FiFm2bGBOTUBu9V2TlM47GrgAbWD05YiNWeeRtKzDoU7g4aneaKr9gF9ggNzf2TpyDs3IdOGkwt2AXo9ow2l%7Ctkp%3ABk9SR46Lz4ucZQ</t>
+          <t>https://www.ebay.com/itm/396156610950?_skw=PSA+10&amp;epid=19056582784&amp;hash=item5c3cc62986:g:huMAAOSwjflnmFFK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKm3ujHWAe4qTRaA4OU8LgpRqHrF6jUvQ8q4pA2EadljIPj6oATBZJJvrEToh3JR%2BIvoG66pUIUqyjkmzkvmbZpTYW1554uB%2F%2B7qPcTt1MLck0tUDOJIszszFK%2FgCTE0KS7VGvC1C4tFTIKvNSCYghnaO7h%2FoIkqFlEzSgWZxyuMAEGLF%2BYY%2B1OEX19qhVR4ov%2BqgKaQbkFsQyIufPKkLMHIc5LvRpX9VOb9Wr0CGkWdkbDH3QsoORGw6XUhtVARKoFNkKPPmqQMdGf7yYhTaa4v%7Ctkp%3ABk9SR9aB07GcZQ</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267142291151?_skw=PSA+10&amp;epid=4062025612&amp;hash=item3e32ebdecf:g:d~sAAOSw7QNmsUpT&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKku%2BwXlUXCyzsAQlgy%2FPBBdbDKKTu2PhmQ4aN%2B7lkgJLDmr2C8zLz5sqH%2BV1KJG1KtAKTL%2Ff5GXsp%2F0HBPQFbwmcTzTzCpgVcK%2FHbglKED6Ixzm8mvQGbeamd4W1oSNIfodmqB7iT6bGmqM80hUcjFlsc9987dqZX6Hnsn4bY1%2BLR5IjU8rNW%2F1kFoTOmcqy9%2FsxoGqkuYcq8IZOtJG7yURZRxC7SUkKzM7TwJ%2FjWgbynSXgSDHwER1EnZ7b7tfd69TjAD3Uq%2FJJIB6l0fHyXWK%7Ctkp%3ABk9SR46Lz4ucZQ</t>
+          <t>https://www.ebay.com/itm/267142291151?_skw=PSA+10&amp;epid=4062025612&amp;hash=item3e32ebdecf:g:d~sAAOSw7QNmsUpT&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKl8kT7TtpP%2FZT%2BEPkmVOERnKRexyHpJDc%2Bm8EEYoujBUL1mxEYOpsVLus4N5E2c2R05Bq8nCc3UasFYRPkWaUHV2szMR0Z8K8wmBN3Ie9BGPNtEd7Wvnfd57itakw6TsM10%2FmzW6eyTFhdNMzAsFX1Em4aDHnu0crpnjNqwYIleSR2Myy%2BuRHHJzw4NCS2GX1bUeB22d8tSI%2FxlQwuVMoruQNf1R%2BxptyGrsjPVXT0LjA%3D%3D%7Ctkp%3ABk9SR9aB07GcZQ</t>
         </is>
       </c>
     </row>
@@ -719,31 +719,39 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387875495027?_skw=PSA+10&amp;epid=16056062747&amp;hash=item5a4f2e5c73:g:NZAAAOSwjVdnm63p&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlZ3bKix%2BGdl2v4GZoZnJFbMl0YuRu7bpezsuc%2BdZCXVQ971hU8rORAUKKLqT1%2Bwse4f3OMnGn27gf3IRXKU3rPDyGLV0CL%2B%2BbG%2FaraoTjLZF9%2FIYEBkqrhpang6Ee0T3zkdDHsCDyRzRUVbPGYBC0VPlGLPqH%2BsS%2BoydSTfvaU8tdSiRv7yFVwoUczjRQ3hEX%2B%2BDgzSSkh1FlygDxE%2Bnwdj3dfvE7JBkz6atPJWeyNrQ%3D%3D%7Ctkp%3ABk9SR46Lz4ucZQ</t>
+          <t>https://www.ebay.com/itm/387875495027?_skw=PSA+10&amp;epid=16056062747&amp;hash=item5a4f2e5c73:g:NZAAAOSwjVdnm63p&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKngU%2Fm5c4eFGgMTgDFKb%2FC%2Boeg1KUyZuvW8UQyKbY1d8vqteTwq5v%2FUXs%2F2aD4fC9wWUwffmSdZIHRfbApc8pXvsVFYsGwJOB68KL4iBLQRBIa7ULVKREE11Rduowd3F9vRxoWBAO69jRJho%2BGTb8eXFvR3rdh1tKd1ug6hlGFOWDOS5sRu0o%2FGVV%2FnsFzjZZvcsPfcKa93pPPZydjWWISLGzX86%2FbNWzh7XPEXvcZWfsg%2BbtFiDsXyXJboPsu0dx%2FzGdjAvv1CJWmaNxXftxO0%7Ctkp%3ABk9SR9aB07GcZQ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Boxing/Wrestling</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>Wrestling</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Panini Revolution WWE Kaboom!</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>Panini Prizm WWE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Under Card Prizm</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Brock Lesnar</t>
+          <t>Undertaker</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$525.00</t>
+          <t>$189.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -753,7 +761,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/335769297358?_skw=PSA+10&amp;epid=18061295146&amp;hash=item4e2d68e1ce:g:hKYAAOSwsHZnhUa9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn662FxSY7KQcAwi6DkpQFiWLz%2FGjflmNBJZZIHRIcaXOA0fskx8zgjjE4rXnTFdgPpVZyVrSJVaoleuL%2BdGRrawT%2F2S7lSRSrvHrFlG5R%2FdKG%2B%2Fw5fVET6bZoHgvhxiW2bDjJmTv1UsyQYuJb5cVqLYgRSJpd2fy15ieCTpvSomEh%2FfohcNRbp8bSAvlDsV%2B%2BIlVhLhtz29ns0%2FOCGH6rozTp90ZJ5Fk249UHWfl660g%3D%3D%7Ctkp%3ABk9SR46Lz4ucZQ</t>
+          <t>https://www.ebay.com/itm/405511766077?_skw=PSA+10&amp;epid=16070870803&amp;hash=item5e6a62803d:g:40YAAOSwTzVnffSp&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnj9TyRypahhP0btLixCmKQdm5wL9E6ZkCSRX2Z0lE%2BtUSoI3J5fS8g%2Bq64VgxrS0cqcNJhUQkJBNaPFAzKx2sdeUDPYyQYlZx5EQ9UEStxt9twOo1293W77oIKv5wQzU2s9OvH%2Bv5Txin8UXeSgMKpp73o57Ab%2F1Gqps41AqThnyZhSk2J0R0jNumdAXZDORABax3vHbtHk3m7vvHbTia9Oeck%2BFYIwoq7%2FO2yECtAquRIj3VUOfQ%2FuigtWGyhOpWcptI8QFUhlMb08IzGrDvq%7Ctkp%3ABk9SR9aB07GcZQ</t>
         </is>
       </c>
     </row>
@@ -765,27 +773,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Panini Prizm WWE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Prizm</t>
-        </is>
-      </c>
+          <t>O-Pee-Chee WWF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jade Cargill</t>
+          <t>Hulk Hogan</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$500.00</t>
+          <t>$20,100.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -795,7 +799,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135532480968?_skw=PSA+10&amp;hash=item1f8e5d89c8:g:aFsAAOSw0bZnkB37&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmlY3OdEjzEHSKrIfQ3muuSvzVG4dygAm5oCECbOzPFYo2y2kfgN6%2F8GC%2B90VwXBkOJlyZnJmrwzIzCet1kf6Jwt1Me3EFP78x1tnr38z6VosLNOcb11g0VKSRHelToKE7PIYHbAAXS%2BVDP9AHN4ZvjIAtobIoLRsdt0S53syCtXdno5HHMGpB3IDPYRD9Y8Gt5GXs%2FCRKm60GNGxhhTaBB85P9Z37cx03JQ9zrjaJCiA%3D%3D%7Ctkp%3ABk9SR46Lz4ucZQ</t>
+          <t>https://www.ebay.com/itm/356510553674?_skw=PSA+10&amp;epid=27056061127&amp;hash=item5301af564a:g:~9YAAOSwCTlnl-pY&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmCSx3yhJZYJuQMF367GhGH5j0YVh9xOHc8oU3at2dQk7i2f8Ka2qO254TH6ThegGPmpjdtg0xLp1bs0gn%2BpkDrvhd84hroS6k2WyLzgp0h61I19o58hEUE9%2BIvXTOIBnKPJlS%2F6%2BMZphdhnEOZEHs5NoTYxMQg1kwmSPPnhJawHOUuDfsM%2FVZXRqBM56YObqxQQi0OOAs4E1PEBTEXvtx8Es%2FkGO0amCMy5eAb7RVSpw%3D%3D%7Ctkp%3ABk9SR9aB07GcZQ</t>
         </is>
       </c>
     </row>
@@ -807,23 +811,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Topps WWE Undisputed</t>
+          <t>Panini Revolution WWE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Alexa Bliss</t>
+          <t>Brock Lesnar</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$285.00</t>
+          <t>$525.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -833,7 +837,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/226584886068?_skw=PSA+10&amp;epid=13056069701&amp;hash=item34c182fb34:g:~osAAOSwKAFnYfZa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl%2FSZbe0VLW6i6GlNOQhFq0GfMLZSNv0EIGuZm%2FeN4ypQPPUm0l66cfSnQyp%2Fkr%2BhJqlXPrNNaEWwxLcjljJ3oEAv%2FYgSg2P7pwx0Em8qm1Yf8SXOvjT87Es9kGxGJ%2BFa1YntdNFZA%2BmeQhwsajY%2BLq8Q9iOunVXMuKQULM6bN%2FndXsM9SAgaTjwTCUkRMEgjI8feHji1Wv7tYQjS6F49TrbN2WBRYKlvckFh%2BNfJbfxpzYTO4kHDmqWuzXDFPcGlXk1P%2B8hun7nYnFZYD7GeIB%7Ctkp%3ABk9SR46Lz4ucZQ</t>
+          <t>https://www.ebay.com/itm/335769297358?_skw=PSA+10&amp;epid=18061295146&amp;hash=item4e2d68e1ce:g:hKYAAOSwsHZnhUa9&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn662FxSY7KQcAwi6DkpQFiWLz%2FGjflmNBJZZIHRIcaXDmrt5LJVsZGFZiZBFEb2%2BkyaVz5Xiy6%2BPApmSC43j8cr8vmExrpyWyyuqBapgCe1yvYrBYFky1Sgb%2FSOt3tykjSbeyT2Fly97l6oyHuhl1%2Bkb9MymOI1%2F6OtPS4DrzIRNsdf2cDdQOJ%2BpIRHpPsLmopn1Ie%2BJLnpOjdElEieAK8UPRoCo0ZXZ%2BD9vkNGS6P7A%3D%3D%7Ctkp%3ABk9SR9aB07GcZQ</t>
         </is>
       </c>
     </row>
@@ -850,28 +854,108 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Panini Prizm WWE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Prizm</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Jade Cargill</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>$500.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/135532480968?_skw=PSA+10&amp;hash=item1f8e5d89c8:g:aFsAAOSw0bZnkB37&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKk3nhwKvZHT9ZbMtW96NOcOR9GCnatlDVarfrz%2FQaah6M5lQbEoLkAloEmlNw%2FMmEbxJGRKtjC68jjtgNkNXJNQr0LY3NuphyxM2JHDL4G4FfZn1qr2Y59SIa%2Bsfqi9WOlWsrw2vNMvHgOxabUjci70em%2FxQd7k5N%2BUoy2tGGD%2BnwP55zVvzE6bLER55re9KRuudW%2F2hACL67VTNGbIfvHM3E2vRwiKrK6raSPAfEE2ZtkgWkadptLWQvb%2Fa6srs%2FizFTF1aAjjTOj0kY0P7fZy%7Ctkp%3ABk9SR9aB07GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Wrestling</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Topps WWE Undisputed</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Alexa Bliss</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>$285.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/226584886068?_skw=PSA+10&amp;epid=13056069701&amp;hash=item34c182fb34:g:~osAAOSwKAFnYfZa&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl%2FSZbe0VLW6i6GlNOQhFq0GfMLZSNv0EIGuZm%2FeN4ypQPPUm0l66cfSnQyp%2Fkr%2BhJqlXPrNNaEWwxLcjljJ3oEAv%2FYgSg2P7pwx0Em8qm1Yf8SXOvjT87Es9kGxGJ%2BFa3ccbzsvcL%2FYJe8bc9Zo8FqbQXJAqb8PNDMMUcx2XGHcZ7Xxy51JaOTg7mTQefGOCaVMQBwaA9b%2FpRthB82uYwdz46jV%2BfvkG1PUCF78l%2FeMuwa8SfirVnI4VkL%2FK4P7Y%2BFSz21U4bFelFe2gBaaGZS%7Ctkp%3ABk9SR9iB07GcZQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Wrestling</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Panini Select</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Jade Cargill</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>$288.88</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2025-02-06</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/itm/126921429206?_skw=PSA+10&amp;hash=item1d8d1b50d6:g:oV4AAOSwAV5noo-E&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkD3wY3W%2FOxLHmJ5QWan%2F6XIL%2B6biAY55eiw1zHi9fkJldFOF9AhieqUmFJZfiyU9%2FRSyUGgB2Kqt0TVMuHSIMGtEDkB%2BF2ryyHyPd1S2nU3VJWM6ltDBPgtEEEv8CgRPLWdDDzqssrK5neWMD2tPwKH%2Fm6QzLCPLwwJnYbRTxjVuMOHQS7JlXfJ%2F0OF8KfINT8YtUMi%2BurLMaESFocu%2Fddj2zEDI8Yem8dpg%2FcV83m%2BWCPQ%2FDMYqNkcKczSthr2lWVz3yVXf8nVjnQ%2FvQ--GcZ%7Ctkp%3ABk9SR46Lz4ucZQ</t>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/126921429206?_skw=PSA+10&amp;hash=item1d8d1b50d6:g:oV4AAOSwAV5noo-E&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlXkTI%2BwtwYHMQezLlIGxeAYjcuUocQdYiEkBBWaKvTW%2FaCJIZRBcoqjQ5eVe%2Fg6Pq%2F5czwNUlZpcx58%2BgYTzXXouJv8F7fFPHpb6y7304E0xAK9We8FFlK0Fmc%2BkpTWiFxjVXxkPayp%2BsBupFEJ9Azv0NEiaIOgMf5Q8qVRtuLBII0lp7N6SSUAVn4RTeCzixv3ZhAnrXnxuU%2FjaUa8aSH6Hwq%2BWYH0yV%2BS0ooK27zRA%3D%3D%7Ctkp%3ABk9SR9iB07GcZQ</t>
         </is>
       </c>
     </row>
